--- a/output/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/output/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:21:03-03:00</t>
+    <t>2021-09-13T12:43:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-CoreLocalizacionCl.xlsx
+++ b/output/StructureDefinition-CoreLocalizacionCl.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//StructureDefinition/CoreLocalizacionCl</t>
+    <t>http://core.hl7chile.cl/StructureDefinition/CoreLocalizacionCl</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T12:43:20-03:00</t>
+    <t>2021-09-15T12:30:30-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1191,7 +1191,7 @@
     <t>Erewhon</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodNacComunas</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodNacComunas</t>
   </si>
   <si>
     <t>Address.city</t>
@@ -1219,7 +1219,7 @@
     <t>Madison</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodProv</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodProv</t>
   </si>
   <si>
     <t>Address.district</t>
@@ -1241,7 +1241,7 @@
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
   </si>
   <si>
-    <t>http://minsal.cl/fhir/core//ValueSet/CodReg</t>
+    <t>http://core.hl7chile.cl/ValueSet/CodReg</t>
   </si>
   <si>
     <t>Address.state</t>
